--- a/company/wework/wework-freq.xlsx
+++ b/company/wework/wework-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/wework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08582F62-EA65-8B43-B4F9-FAF1384606D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB161A-306A-774C-B8C9-EC5439396A78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72620" yWindow="3960" windowWidth="20400" windowHeight="17640" xr2:uid="{FF66AA0E-32DB-9947-BD15-A134199ADE82}"/>
+    <workbookView xWindow="80660" yWindow="3960" windowWidth="20400" windowHeight="17640" activeTab="1" xr2:uid="{FF66AA0E-32DB-9947-BD15-A134199ADE82}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Find Leaves of Binary Tree</t>
+  </si>
+  <si>
+    <t>http://blog.gainlo.co/index.php/2016/03/29/design-news-feed-system-part-1-system-design-interview-questions/</t>
+  </si>
+  <si>
+    <t>http://blog.gainlo.co/index.php/2016/06/29/build-web-crawler/</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E48073-EAD5-A54F-8903-55F9E266FCC1}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -957,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190E6FC4-3415-F045-8414-F71D77C86FC0}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,6 +1054,9 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1064,8 +1073,15 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{51BE6438-5F17-D24E-BF45-B1EC44A722F9}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{FC41C2EE-93FD-AA44-A817-F5A7709D782A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>